--- a/Laboratorio/Proyecto/Mazos Estrategias.xlsx
+++ b/Laboratorio/Proyecto/Mazos Estrategias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Virtu\Documents\GitHub\1138122\Laboratorio\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C13CF85-C341-4078-BF50-2A9A9A75E323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100FF43B-FF8A-4984-BC1B-6FF9E2648F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4755" yWindow="3165" windowWidth="10155" windowHeight="9405" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estrategia" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
   <si>
     <t>Nombres: Sebastian Echeverria 1138122 --- Laura Calderon 1088821</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>Al momento de crear la baraja me centre en la defensa de esta misma, dandole un buen ataque pero una excelente defensa, por lo tanto este mazo se centra en volver una defensa existosa en un buen ataque. Utilizando la defensiva para crear la mejor ofensiva.</t>
+  </si>
+  <si>
+    <t>Calculos</t>
   </si>
 </sst>
 </file>
@@ -453,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -493,20 +496,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -523,6 +515,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,6 +537,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,6 +561,537 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2574872" cy="1536318"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23FB219A-7C75-4CE5-86D3-A014240AB676}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13096875" y="461962"/>
+              <a:ext cx="2574872" cy="1536318"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑉𝑖𝑑𝑎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑇𝑜𝑡𝑎𝑙</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑣𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐷𝑎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>ñ</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑜</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑎𝑛𝑎𝑑𝑎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑒𝑙</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑚𝑎𝑦𝑜𝑟</m:t>
+                    </m:r>
+                  </m:oMath>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑉𝑖𝑑𝑎𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>&lt;ó &gt;</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐷𝑎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>ñ</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑜</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐴𝑡𝑎𝑞𝑢𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑣𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐷𝑒𝑓𝑒𝑛𝑠𝑎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑎𝑛𝑎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑒𝑙</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑚𝑎𝑦𝑜𝑟</m:t>
+                    </m:r>
+                  </m:oMath>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐴𝑡𝑎𝑞𝑢𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>&lt;ó&gt;</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐷𝑒𝑓𝑒𝑛𝑠𝑎</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:br>
+                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              </a:br>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑆𝑖𝑛𝑒𝑟𝑔𝑖𝑎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑣𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑆𝑖𝑛𝑒𝑟𝑔𝑖𝑎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑎𝑛𝑎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑒𝑙</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑚𝑎𝑦𝑜𝑟</m:t>
+                    </m:r>
+                  </m:oMath>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑆𝑖𝑛𝑒𝑟𝑔𝑖𝑎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>&lt;ó&gt;</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑆𝑖𝑛𝑒𝑟𝑔𝑖𝑎</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:br>
+                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              </a:br>
+              <a:r>
+                <a:rPr lang="es-GT" sz="1100" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="es-GT" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23FB219A-7C75-4CE5-86D3-A014240AB676}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13096875" y="461962"/>
+              <a:ext cx="2574872" cy="1536318"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑉𝑖𝑑𝑎 𝑇𝑜𝑡𝑎𝑙 𝑣𝑠 𝐷𝑎ñ𝑜=𝐺𝑎𝑛𝑎𝑑𝑎 𝑒𝑙 𝑚𝑎𝑦𝑜𝑟</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(𝑉𝑖𝑑𝑎𝑇&lt;ó &gt;𝐷𝑎ñ𝑜</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐴𝑡𝑎𝑞𝑢𝑒 𝑣𝑠 𝐷𝑒𝑓𝑒𝑛𝑠𝑎=𝐺𝑎𝑛𝑎 𝑒𝑙 𝑚𝑎𝑦𝑜𝑟</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐴𝑡𝑎𝑞𝑢𝑒&lt;ó&gt;𝐷𝑒𝑓𝑒𝑛𝑠𝑎</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:br>
+                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              </a:br>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑆𝑖𝑛𝑒𝑟𝑔𝑖𝑎 𝑣𝑠 𝑆𝑖𝑛𝑒𝑟𝑔𝑖𝑎=𝐺𝑎𝑛𝑎 𝑒𝑙 𝑚𝑎𝑦𝑜𝑟</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              </a:br>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑆𝑖𝑛𝑒𝑟𝑔𝑖𝑎&lt;ó&gt;𝑆𝑖𝑛𝑒𝑟𝑔𝑖𝑎</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              </a:br>
+              <a:r>
+                <a:rPr lang="es-GT" sz="1100" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="es-GT" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -590,7 +1130,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -629,7 +1169,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -668,7 +1208,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -905,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -926,119 +1466,151 @@
     <col min="11" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="2"/>
       <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="35.25" customHeight="1">
+      <c r="L2" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+    </row>
+    <row r="3" spans="1:16" ht="35.25" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="F3" s="21" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="15"/>
+      <c r="F3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="28" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-    </row>
-    <row r="5" spans="1:10" ht="31.5" customHeight="1">
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+    </row>
+    <row r="5" spans="1:16" ht="31.5" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="F5" s="18"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-    </row>
-    <row r="7" spans="1:10" ht="45.75" customHeight="1">
+      <c r="G6" s="17"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+    </row>
+    <row r="7" spans="1:16" ht="45.75" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="G7" s="18"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1049,22 +1621,22 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="48" customHeight="1">
+    <row r="9" spans="1:16" ht="48" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:16">
       <c r="A10" s="1"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1075,22 +1647,22 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="48.75" customHeight="1">
+    <row r="11" spans="1:16" ht="48.75" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:16">
       <c r="A12" s="8"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1101,7 +1673,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:16">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1112,7 +1684,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:16">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1123,7 +1695,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:16">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1134,7 +1706,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:16">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -11970,12 +12542,9 @@
       <c r="I1000" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
+  <mergeCells count="14">
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="L3:P7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B9:D9"/>
@@ -11983,9 +12552,15 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11993,7 +12568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -12015,10 +12590,10 @@
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="16"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -12039,7 +12614,7 @@
       <c r="G2" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
@@ -12057,8 +12632,8 @@
       <c r="E3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="26"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
@@ -12077,8 +12652,8 @@
       <c r="E4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="26"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
@@ -12096,8 +12671,8 @@
       <c r="E5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="26"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
@@ -12115,8 +12690,8 @@
       <c r="E6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="26"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
@@ -12134,8 +12709,8 @@
       <c r="E7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="26"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
@@ -12153,8 +12728,8 @@
       <c r="E8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="26"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
@@ -12172,8 +12747,8 @@
         <v>2</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="26"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
@@ -12191,8 +12766,8 @@
         <v>4</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="26"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
@@ -12207,8 +12782,8 @@
         <v>3834.5</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="26"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
@@ -12217,12 +12792,12 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="26"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="G13" s="23"/>
-      <c r="H13" s="27"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -13242,10 +13817,10 @@
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="16"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -13266,7 +13841,7 @@
       <c r="G2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
@@ -13284,8 +13859,8 @@
       <c r="E3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="26"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
@@ -13305,8 +13880,8 @@
       <c r="E4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="26"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
@@ -13325,8 +13900,8 @@
       <c r="E5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="26"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
@@ -13344,8 +13919,8 @@
       <c r="E6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="26"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
@@ -13363,8 +13938,8 @@
       <c r="E7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="26"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
@@ -13382,8 +13957,8 @@
       <c r="E8" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="26"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
@@ -13401,8 +13976,8 @@
         <v>5</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="26"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
@@ -13420,8 +13995,8 @@
         <v>3</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="26"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
@@ -13436,8 +14011,8 @@
         <v>3962</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="26"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
@@ -13446,36 +14021,36 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="26"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="G13" s="22"/>
-      <c r="H13" s="26"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="G14" s="22"/>
-      <c r="H14" s="26"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="G15" s="22"/>
-      <c r="H15" s="26"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="G16" s="22"/>
-      <c r="H16" s="26"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="7:8">
-      <c r="G17" s="22"/>
-      <c r="H17" s="26"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="7:8">
-      <c r="G18" s="22"/>
-      <c r="H18" s="26"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="7:8">
-      <c r="G19" s="23"/>
-      <c r="H19" s="27"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="22"/>
     </row>
     <row r="21" spans="7:8" ht="15.75" customHeight="1"/>
     <row r="22" spans="7:8" ht="15.75" customHeight="1"/>
@@ -14495,10 +15070,10 @@
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="16"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
@@ -14519,7 +15094,7 @@
       <c r="G2" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
@@ -14537,8 +15112,8 @@
       <c r="E3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="26"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
@@ -14556,8 +15131,8 @@
       <c r="E4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="26"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
@@ -14575,8 +15150,8 @@
       <c r="E5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="26"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
@@ -14594,8 +15169,8 @@
       <c r="E6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="26"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
@@ -14613,8 +15188,8 @@
       <c r="E7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="26"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
@@ -14632,8 +15207,8 @@
       <c r="E8" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="26"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
@@ -14649,8 +15224,8 @@
         <v>2</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="26"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
@@ -14666,8 +15241,8 @@
         <v>4</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="26"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
@@ -14682,8 +15257,8 @@
         <v>2969</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="26"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
@@ -14692,24 +15267,24 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="26"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="G13" s="22"/>
-      <c r="H13" s="26"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="G14" s="22"/>
-      <c r="H14" s="26"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="G15" s="22"/>
-      <c r="H15" s="26"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="G16" s="23"/>
-      <c r="H16" s="27"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -15729,10 +16304,10 @@
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="16"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
@@ -15771,8 +16346,8 @@
       <c r="E3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
@@ -15790,8 +16365,8 @@
       <c r="E4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
@@ -15809,8 +16384,8 @@
       <c r="E5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
@@ -15830,8 +16405,8 @@
       <c r="E6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
@@ -15851,8 +16426,8 @@
       <c r="E7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
@@ -15872,8 +16447,8 @@
       <c r="E8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
@@ -15889,8 +16464,8 @@
         <v>2</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
@@ -15906,8 +16481,8 @@
         <v>4</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
@@ -15922,40 +16497,40 @@
         <v>3329</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1">
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1">
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1">
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1">
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1">
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
     </row>
     <row r="17" spans="7:8" ht="15" customHeight="1">
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
     </row>
     <row r="18" spans="7:8" ht="15" customHeight="1">
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
     </row>
     <row r="19" spans="7:8" ht="15" customHeight="1">
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
     </row>
     <row r="21" spans="7:8" ht="15.75" customHeight="1"/>
     <row r="22" spans="7:8" ht="15.75" customHeight="1"/>
